--- a/data/trans_dic/P78C2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C2_2023-Estudios-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>55,39%</t>
+          <t>52,92%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>44,24%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>48,28%</t>
+          <t>47,33%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>17,59; 91,17</t>
+          <t>14,74; 88,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>27,0; 65,24</t>
+          <t>27,0; 65,14</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,03; 67,92</t>
+          <t>30,49; 66,5</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>81,63%</t>
+          <t>80,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>69,83%</t>
+          <t>64,6%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>74,95%</t>
+          <t>71,41%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>65,12; 93,35</t>
+          <t>63,48; 93,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,02; 84,98</t>
+          <t>41,99; 81,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61,26; 85,48</t>
+          <t>54,58; 83,12</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>72,64%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>96,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>86,26%</t>
+          <t>85,02%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,53; 100,0</t>
+          <t>4,15; 100,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,32; 100,0</t>
+          <t>74,68; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>45,21; 98,43</t>
+          <t>44,16; 98,3</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>74,92%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>66,58%</t>
+          <t>62,61%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>70,69%</t>
+          <t>67,76%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>61,33; 87,38</t>
+          <t>59,12; 86,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>52,95; 77,58</t>
+          <t>46,81; 75,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,58; 78,68</t>
+          <t>53,7; 76,69</t>
         </is>
       </c>
     </row>
